--- a/Diplomschrift/Teile/Kosten.xlsx
+++ b/Diplomschrift/Teile/Kosten.xlsx
@@ -21,9 +21,6 @@
     <t>Artikel</t>
   </si>
   <si>
-    <t>Preis</t>
-  </si>
-  <si>
     <t>K8IO-Relaiskarte</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Kosten</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,12 +475,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>27.95</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.95</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4.95</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.6</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>7.95</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>7.3</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>8.8000000000000007</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0.6</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1.5</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6">
         <f>SUM(B2:B12)</f>
